--- a/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeKiemTraBanVe.xlsx
+++ b/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeKiemTraBanVe.xlsx
@@ -96,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,11 +119,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -133,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,149 +447,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -669,28 +674,47 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:P4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:J2"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeKiemTraBanVe.xlsx
+++ b/DocumentManage/DocumentManage/bin/Debug/Template/ThongKeKiemTraBanVe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Tỷ lệ %</t>
+  </si>
+  <si>
+    <t>Phường/xã</t>
   </si>
 </sst>
 </file>
@@ -140,11 +143,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,121 +453,126 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
@@ -577,12 +585,12 @@
       <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -694,6 +702,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="P2:P5"/>
     <mergeCell ref="C3:C5"/>
@@ -710,11 +723,6 @@
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
